--- a/【株式会社スパイク・チュンソフト】2025エントリーシート.xlsx
+++ b/【株式会社スパイク・チュンソフト】2025エントリーシート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347033\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347033\Desktop\gameproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8BF198-61CB-4730-AF5C-9F30FB32F490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7171D144-2F33-49A7-AC6F-2D2547879D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="2835" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6495" yWindow="630" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ご提出にあたり" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -1219,6 +1219,13 @@
   </si>
   <si>
     <t>この経験を活かしてよりプレイする人に寄り添ったゲームを制作し、多くの人に記憶に残る作品を提供したいと考えています。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>私は</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2477,6 +2484,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2501,6 +2511,425 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -2513,52 +2942,82 @@
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -2573,463 +3032,11 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4094,48 +4101,48 @@
     <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="30"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="30"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="31"/>
@@ -4149,172 +4156,172 @@
       <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="32"/>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="32"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
     </row>
     <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4594,8 +4601,8 @@
   </sheetPr>
   <dimension ref="A1:L381"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:L90"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A93" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -4606,17 +4613,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
       <c r="L1" s="26">
@@ -4624,85 +4631,85 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="192"/>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
       <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="171" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="172"/>
       <c r="G3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="173">
+      <c r="H3" s="72">
         <f ca="1">TODAY()</f>
-        <v>45365</v>
-      </c>
-      <c r="I3" s="174"/>
+        <v>45366</v>
+      </c>
+      <c r="I3" s="73"/>
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="125" t="s">
+      <c r="B4" s="148"/>
+      <c r="C4" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="127"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="116"/>
       <c r="J4" s="20"/>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="128" t="s">
+      <c r="B5" s="150"/>
+      <c r="C5" s="117" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="194"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="34"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="75">
+      <c r="B6" s="135"/>
+      <c r="C6" s="169">
         <v>37841</v>
       </c>
-      <c r="D6" s="76"/>
+      <c r="D6" s="170"/>
       <c r="E6" s="3">
         <f ca="1">DATEDIF(C6,H3,"Y")</f>
         <v>20</v>
@@ -4713,165 +4720,165 @@
       <c r="G6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="95"/>
+      <c r="I6" s="137"/>
       <c r="J6" s="21"/>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="99"/>
+      <c r="B7" s="141"/>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="142" t="s">
+      <c r="D7" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="138" t="s">
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="138"/>
-      <c r="L7" s="139"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="128"/>
     </row>
     <row r="8" spans="1:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="100"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="143" t="s">
+      <c r="A8" s="142"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="140" t="s">
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="140"/>
-      <c r="L8" s="141"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="130"/>
     </row>
     <row r="9" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="80"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="85" t="s">
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="180"/>
     </row>
     <row r="10" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="84"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="178"/>
     </row>
     <row r="11" spans="1:12" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="133"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="122"/>
     </row>
     <row r="12" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="182" t="s">
+      <c r="A13" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="183"/>
-      <c r="C13" s="134" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="136" t="s">
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="137"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="126"/>
     </row>
     <row r="14" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="117"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="115"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="157"/>
     </row>
     <row r="16" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="45">
+      <c r="A16" s="63">
         <v>2019</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="23">
         <v>3</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="49"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
@@ -4894,319 +4901,319 @@
       <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="45">
+      <c r="A18" s="63">
         <v>2022</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="23">
         <v>3</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="49"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="45">
+      <c r="A19" s="63">
         <v>2022</v>
       </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="23">
         <v>4</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="49"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="23"/>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="49"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="45">
+      <c r="A21" s="63">
         <v>2025</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="23">
         <v>3</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="49"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="49"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="23"/>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="49"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="45"/>
     </row>
     <row r="24" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="120"/>
-      <c r="B24" s="121"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="175" t="s">
+      <c r="D24" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="176"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="176"/>
-      <c r="K24" s="176"/>
-      <c r="L24" s="177"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="77"/>
     </row>
     <row r="25" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="116" t="s">
+      <c r="A26" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="117"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="178" t="s">
+      <c r="D26" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="180"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="86"/>
     </row>
     <row r="27" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="45">
+      <c r="A27" s="63">
         <v>2022</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="23">
         <v>3</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="49"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="49"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="45"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="45"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="23"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="49"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="23"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="49"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="45"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="23"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="49"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="45"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="120"/>
-      <c r="B32" s="121"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="71"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="177"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
     </row>
     <row r="33" spans="1:12" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:12" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="118" t="s">
+      <c r="A34" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="122" t="s">
+      <c r="B34" s="159"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="160" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="124"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="162"/>
     </row>
     <row r="35" spans="1:12" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
+      <c r="A35" s="181"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="181"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="181"/>
+      <c r="K35" s="181"/>
+      <c r="L35" s="181"/>
     </row>
     <row r="36" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="111" t="s">
+      <c r="A36" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="112"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="112"/>
-      <c r="K36" s="112"/>
-      <c r="L36" s="113"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
+      <c r="K36" s="154"/>
+      <c r="L36" s="155"/>
     </row>
     <row r="37" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="89"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
+      <c r="B37" s="183"/>
+      <c r="C37" s="192"/>
+      <c r="D37" s="192"/>
+      <c r="E37" s="192"/>
+      <c r="F37" s="192"/>
+      <c r="G37" s="192"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="192"/>
+      <c r="J37" s="192"/>
+      <c r="K37" s="192"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="90" t="s">
+      <c r="A38" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="91"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
+      <c r="B38" s="185"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
       <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -5218,16 +5225,16 @@
     </row>
     <row r="40" spans="1:12" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
-      <c r="B40" s="109"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="109"/>
-      <c r="K40" s="109"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="151"/>
+      <c r="K40" s="151"/>
       <c r="L40" s="15"/>
     </row>
     <row r="41" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5236,52 +5243,52 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="181" t="s">
+      <c r="A42" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="155"/>
-      <c r="C42" s="155"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="155"/>
-      <c r="L42" s="156"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="89"/>
     </row>
     <row r="43" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="157" t="s">
+      <c r="A43" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="158"/>
-      <c r="C43" s="158"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="158"/>
-      <c r="I43" s="158"/>
-      <c r="J43" s="158"/>
-      <c r="K43" s="158"/>
-      <c r="L43" s="159"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="60"/>
     </row>
     <row r="44" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="55"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="80"/>
     </row>
     <row r="45" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="19" t="s">
@@ -5300,76 +5307,76 @@
       <c r="L45" s="19"/>
     </row>
     <row r="46" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="55"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="80"/>
     </row>
     <row r="47" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="53"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="55"/>
+      <c r="A47" s="78"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="80"/>
     </row>
     <row r="48" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="53"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="55"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="80"/>
     </row>
     <row r="49" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="53"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="55"/>
+      <c r="A49" s="78"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="80"/>
     </row>
     <row r="50" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="160"/>
-      <c r="B50" s="161"/>
-      <c r="C50" s="161"/>
-      <c r="D50" s="161"/>
-      <c r="E50" s="161"/>
-      <c r="F50" s="161"/>
-      <c r="G50" s="161"/>
-      <c r="H50" s="161"/>
-      <c r="I50" s="161"/>
-      <c r="J50" s="161"/>
-      <c r="K50" s="161"/>
-      <c r="L50" s="162"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="83"/>
     </row>
     <row r="51" spans="1:12" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16"/>
@@ -5384,541 +5391,541 @@
       <c r="K51" s="16"/>
     </row>
     <row r="52" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="146" t="s">
+      <c r="A52" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="147"/>
-      <c r="C52" s="148"/>
-      <c r="D52" s="148"/>
-      <c r="E52" s="148"/>
-      <c r="F52" s="148"/>
-      <c r="G52" s="148"/>
-      <c r="H52" s="148"/>
-      <c r="I52" s="148"/>
-      <c r="J52" s="148"/>
-      <c r="K52" s="148"/>
-      <c r="L52" s="149"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="97"/>
+      <c r="J52" s="97"/>
+      <c r="K52" s="97"/>
+      <c r="L52" s="98"/>
     </row>
     <row r="53" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="188" t="s">
+      <c r="A53" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="189"/>
-      <c r="C53" s="189"/>
-      <c r="D53" s="189"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="49"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="45"/>
     </row>
     <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="157"/>
-      <c r="B54" s="158"/>
-      <c r="C54" s="158"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="158"/>
-      <c r="F54" s="158"/>
-      <c r="G54" s="158"/>
-      <c r="H54" s="158"/>
-      <c r="I54" s="158"/>
-      <c r="J54" s="158"/>
-      <c r="K54" s="158"/>
-      <c r="L54" s="159"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="60"/>
     </row>
     <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="53"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="55"/>
+      <c r="A55" s="78"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="80"/>
     </row>
     <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="53"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="55"/>
+      <c r="A56" s="78"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="79"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="79"/>
+      <c r="L56" s="80"/>
     </row>
     <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="53"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="55"/>
+      <c r="A57" s="78"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="80"/>
     </row>
     <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="53"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="55"/>
+      <c r="A58" s="78"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="80"/>
     </row>
     <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="53"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="55"/>
+      <c r="A59" s="78"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="79"/>
+      <c r="K59" s="79"/>
+      <c r="L59" s="80"/>
     </row>
     <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="160"/>
-      <c r="B60" s="161"/>
-      <c r="C60" s="161"/>
-      <c r="D60" s="161"/>
-      <c r="E60" s="161"/>
-      <c r="F60" s="161"/>
-      <c r="G60" s="161"/>
-      <c r="H60" s="161"/>
-      <c r="I60" s="161"/>
-      <c r="J60" s="161"/>
-      <c r="K60" s="161"/>
-      <c r="L60" s="162"/>
+      <c r="A60" s="81"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="82"/>
+      <c r="L60" s="83"/>
     </row>
     <row r="61" spans="1:12" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="154" t="s">
+      <c r="A62" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="155"/>
-      <c r="C62" s="155"/>
-      <c r="D62" s="155"/>
-      <c r="E62" s="155"/>
-      <c r="F62" s="155"/>
-      <c r="G62" s="155"/>
-      <c r="H62" s="155"/>
-      <c r="I62" s="155"/>
-      <c r="J62" s="155"/>
-      <c r="K62" s="155"/>
-      <c r="L62" s="156"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="88"/>
+      <c r="L62" s="89"/>
     </row>
     <row r="63" spans="1:12" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="193" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="66" t="s">
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="66"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="193" t="s">
+      <c r="E63" s="187"/>
+      <c r="F63" s="188"/>
+      <c r="G63" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="66" t="s">
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="K63" s="66"/>
-      <c r="L63" s="67"/>
+      <c r="K63" s="187"/>
+      <c r="L63" s="194"/>
     </row>
     <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="56" t="s">
+      <c r="A64" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="62" t="s">
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="E64" s="62"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="184" t="s">
+      <c r="E64" s="46"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H64" s="185"/>
-      <c r="I64" s="186"/>
-      <c r="J64" s="62" t="s">
+      <c r="H64" s="66"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="K64" s="62"/>
-      <c r="L64" s="63"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="47"/>
     </row>
     <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="56" t="s">
+      <c r="A65" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="62" t="s">
+      <c r="B65" s="62"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="E65" s="62"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="184" t="s">
+      <c r="E65" s="46"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="185"/>
-      <c r="I65" s="186"/>
-      <c r="J65" s="62"/>
-      <c r="K65" s="62"/>
-      <c r="L65" s="63"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="47"/>
     </row>
     <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="56" t="s">
+      <c r="A66" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="62" t="s">
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="62"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="184" t="s">
+      <c r="E66" s="46"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="H66" s="185"/>
-      <c r="I66" s="186"/>
-      <c r="J66" s="62"/>
-      <c r="K66" s="62"/>
-      <c r="L66" s="63"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="47"/>
     </row>
     <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="56" t="s">
+      <c r="A67" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="184" t="s">
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="H67" s="185"/>
-      <c r="I67" s="186"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="63"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="47"/>
     </row>
     <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="56" t="s">
+      <c r="A68" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="57"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="184" t="s">
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="H68" s="185"/>
-      <c r="I68" s="186"/>
-      <c r="J68" s="62"/>
-      <c r="K68" s="62"/>
-      <c r="L68" s="63"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="47"/>
     </row>
     <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="56" t="s">
+      <c r="A69" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B69" s="57"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="184" t="s">
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="H69" s="185"/>
-      <c r="I69" s="186"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="62"/>
-      <c r="L69" s="63"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="47"/>
     </row>
     <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="56" t="s">
+      <c r="A70" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="184" t="s">
+      <c r="B70" s="62"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="H70" s="185"/>
-      <c r="I70" s="186"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="62"/>
-      <c r="L70" s="63"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="47"/>
     </row>
     <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="56" t="s">
+      <c r="A71" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="57"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="187" t="s">
+      <c r="B71" s="62"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="H71" s="51"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="62"/>
-      <c r="L71" s="63"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="47"/>
     </row>
     <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="56" t="s">
+      <c r="A72" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="187" t="s">
+      <c r="B72" s="62"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="H72" s="51"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="62"/>
-      <c r="K72" s="62"/>
-      <c r="L72" s="63"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="47"/>
     </row>
     <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="56" t="s">
+      <c r="A73" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="187" t="s">
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="H73" s="51"/>
-      <c r="I73" s="52"/>
-      <c r="J73" s="62"/>
-      <c r="K73" s="62"/>
-      <c r="L73" s="63"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="47"/>
     </row>
     <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="56" t="s">
+      <c r="A74" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="187" t="s">
+      <c r="B74" s="62"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="H74" s="51"/>
-      <c r="I74" s="52"/>
-      <c r="J74" s="62"/>
-      <c r="K74" s="62"/>
-      <c r="L74" s="63"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="47"/>
     </row>
     <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="187" t="s">
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="H75" s="51"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="63"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="53"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="47"/>
     </row>
     <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="56" t="s">
+      <c r="A76" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="187" t="s">
+      <c r="B76" s="62"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H76" s="51"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="62"/>
-      <c r="K76" s="62"/>
-      <c r="L76" s="63"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="47"/>
     </row>
     <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="56" t="s">
+      <c r="A77" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="187" t="s">
+      <c r="B77" s="62"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="H77" s="51"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="62"/>
-      <c r="K77" s="62"/>
-      <c r="L77" s="63"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="53"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="47"/>
     </row>
     <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="190" t="s">
+      <c r="A78" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B78" s="191"/>
-      <c r="C78" s="191"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="69"/>
-      <c r="G78" s="187" t="s">
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="186"/>
+      <c r="G78" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H78" s="51"/>
-      <c r="I78" s="52"/>
-      <c r="J78" s="68"/>
-      <c r="K78" s="48"/>
-      <c r="L78" s="49"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="45"/>
     </row>
     <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="50" t="s">
+      <c r="A79" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B79" s="51"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="187" t="s">
+      <c r="B79" s="52"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H79" s="51"/>
-      <c r="I79" s="52"/>
-      <c r="J79" s="62"/>
-      <c r="K79" s="62"/>
-      <c r="L79" s="63"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="53"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="47"/>
     </row>
     <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="50" t="s">
+      <c r="A80" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B80" s="51"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="62" t="s">
+      <c r="B80" s="52"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="E80" s="62"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="187" t="s">
+      <c r="E80" s="46"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="H80" s="51"/>
-      <c r="I80" s="52"/>
-      <c r="J80" s="62"/>
-      <c r="K80" s="62"/>
-      <c r="L80" s="63"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="46"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="47"/>
     </row>
     <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="50" t="s">
+      <c r="A81" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B81" s="51"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="71"/>
-      <c r="G81" s="187" t="s">
+      <c r="B81" s="52"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="H81" s="51"/>
-      <c r="I81" s="52"/>
-      <c r="J81" s="62"/>
-      <c r="K81" s="62"/>
-      <c r="L81" s="63"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="53"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="47"/>
     </row>
     <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="50" t="s">
+      <c r="A82" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="51"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="71"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="48"/>
       <c r="G82" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H82" s="168"/>
-      <c r="I82" s="168"/>
-      <c r="J82" s="168"/>
-      <c r="K82" s="168"/>
-      <c r="L82" s="169"/>
+      <c r="H82" s="109"/>
+      <c r="I82" s="109"/>
+      <c r="J82" s="109"/>
+      <c r="K82" s="109"/>
+      <c r="L82" s="110"/>
     </row>
     <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="58" t="s">
+      <c r="A83" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="B83" s="59"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="163"/>
-      <c r="E83" s="163"/>
-      <c r="F83" s="164"/>
-      <c r="G83" s="170"/>
-      <c r="H83" s="171"/>
-      <c r="I83" s="171"/>
-      <c r="J83" s="171"/>
-      <c r="K83" s="171"/>
-      <c r="L83" s="172"/>
+      <c r="B83" s="190"/>
+      <c r="C83" s="191"/>
+      <c r="D83" s="104"/>
+      <c r="E83" s="104"/>
+      <c r="F83" s="105"/>
+      <c r="G83" s="111"/>
+      <c r="H83" s="112"/>
+      <c r="I83" s="112"/>
+      <c r="J83" s="112"/>
+      <c r="K83" s="112"/>
+      <c r="L83" s="113"/>
     </row>
     <row r="84" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="L84" s="2">
@@ -5926,621 +5933,623 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="146" t="s">
+      <c r="A85" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="B85" s="147"/>
-      <c r="C85" s="148"/>
-      <c r="D85" s="148"/>
-      <c r="E85" s="148"/>
-      <c r="F85" s="148"/>
-      <c r="G85" s="148"/>
-      <c r="H85" s="148"/>
-      <c r="I85" s="148"/>
-      <c r="J85" s="148"/>
-      <c r="K85" s="148"/>
-      <c r="L85" s="149"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="97"/>
+      <c r="D85" s="97"/>
+      <c r="E85" s="97"/>
+      <c r="F85" s="97"/>
+      <c r="G85" s="97"/>
+      <c r="H85" s="97"/>
+      <c r="I85" s="97"/>
+      <c r="J85" s="97"/>
+      <c r="K85" s="97"/>
+      <c r="L85" s="98"/>
     </row>
     <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="157" t="s">
+      <c r="A86" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="B86" s="158"/>
-      <c r="C86" s="158"/>
-      <c r="D86" s="158"/>
-      <c r="E86" s="158"/>
-      <c r="F86" s="158"/>
-      <c r="G86" s="158"/>
-      <c r="H86" s="158"/>
-      <c r="I86" s="158"/>
-      <c r="J86" s="158"/>
-      <c r="K86" s="158"/>
-      <c r="L86" s="159"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="59"/>
+      <c r="L86" s="60"/>
     </row>
     <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="53" t="s">
+      <c r="A87" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="B87" s="54"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="54"/>
-      <c r="I87" s="54"/>
-      <c r="J87" s="54"/>
-      <c r="K87" s="54"/>
-      <c r="L87" s="55"/>
+      <c r="B87" s="79"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="79"/>
+      <c r="G87" s="79"/>
+      <c r="H87" s="79"/>
+      <c r="I87" s="79"/>
+      <c r="J87" s="79"/>
+      <c r="K87" s="79"/>
+      <c r="L87" s="80"/>
     </row>
     <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="53" t="s">
+      <c r="A88" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="B88" s="54"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="54"/>
-      <c r="G88" s="54"/>
-      <c r="H88" s="54"/>
-      <c r="I88" s="54"/>
-      <c r="J88" s="54"/>
-      <c r="K88" s="54"/>
-      <c r="L88" s="55"/>
+      <c r="B88" s="79"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="79"/>
+      <c r="I88" s="79"/>
+      <c r="J88" s="79"/>
+      <c r="K88" s="79"/>
+      <c r="L88" s="80"/>
     </row>
     <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="53" t="s">
+      <c r="A89" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="B89" s="54"/>
-      <c r="C89" s="54"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="54"/>
-      <c r="H89" s="54"/>
-      <c r="I89" s="54"/>
-      <c r="J89" s="54"/>
-      <c r="K89" s="54"/>
-      <c r="L89" s="55"/>
+      <c r="B89" s="79"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="79"/>
+      <c r="H89" s="79"/>
+      <c r="I89" s="79"/>
+      <c r="J89" s="79"/>
+      <c r="K89" s="79"/>
+      <c r="L89" s="80"/>
     </row>
     <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="53"/>
-      <c r="B90" s="54"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="54"/>
-      <c r="H90" s="54"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="55"/>
+      <c r="A90" s="78"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="79"/>
+      <c r="G90" s="79"/>
+      <c r="H90" s="79"/>
+      <c r="I90" s="79"/>
+      <c r="J90" s="79"/>
+      <c r="K90" s="79"/>
+      <c r="L90" s="80"/>
     </row>
     <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="53"/>
-      <c r="B91" s="54"/>
-      <c r="C91" s="54"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="54"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="55"/>
+      <c r="A91" s="78"/>
+      <c r="B91" s="79"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="79"/>
+      <c r="G91" s="79"/>
+      <c r="H91" s="79"/>
+      <c r="I91" s="79"/>
+      <c r="J91" s="79"/>
+      <c r="K91" s="79"/>
+      <c r="L91" s="80"/>
     </row>
     <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="53"/>
-      <c r="B92" s="54"/>
-      <c r="C92" s="54"/>
-      <c r="D92" s="54"/>
-      <c r="E92" s="54"/>
-      <c r="F92" s="54"/>
-      <c r="G92" s="54"/>
-      <c r="H92" s="54"/>
-      <c r="I92" s="54"/>
-      <c r="J92" s="54"/>
-      <c r="K92" s="54"/>
-      <c r="L92" s="55"/>
+      <c r="A92" s="78"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="79"/>
+      <c r="F92" s="79"/>
+      <c r="G92" s="79"/>
+      <c r="H92" s="79"/>
+      <c r="I92" s="79"/>
+      <c r="J92" s="79"/>
+      <c r="K92" s="79"/>
+      <c r="L92" s="80"/>
     </row>
     <row r="93" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="53"/>
-      <c r="B93" s="54"/>
-      <c r="C93" s="54"/>
-      <c r="D93" s="54"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="54"/>
-      <c r="G93" s="54"/>
-      <c r="H93" s="54"/>
-      <c r="I93" s="54"/>
-      <c r="J93" s="54"/>
-      <c r="K93" s="54"/>
-      <c r="L93" s="55"/>
+      <c r="A93" s="78"/>
+      <c r="B93" s="79"/>
+      <c r="C93" s="79"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="79"/>
+      <c r="F93" s="79"/>
+      <c r="G93" s="79"/>
+      <c r="H93" s="79"/>
+      <c r="I93" s="79"/>
+      <c r="J93" s="79"/>
+      <c r="K93" s="79"/>
+      <c r="L93" s="80"/>
     </row>
     <row r="94" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="53"/>
-      <c r="B94" s="54"/>
-      <c r="C94" s="54"/>
-      <c r="D94" s="54"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="54"/>
-      <c r="G94" s="54"/>
-      <c r="H94" s="54"/>
-      <c r="I94" s="54"/>
-      <c r="J94" s="54"/>
-      <c r="K94" s="54"/>
-      <c r="L94" s="55"/>
+      <c r="A94" s="78"/>
+      <c r="B94" s="79"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="79"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="79"/>
+      <c r="H94" s="79"/>
+      <c r="I94" s="79"/>
+      <c r="J94" s="79"/>
+      <c r="K94" s="79"/>
+      <c r="L94" s="80"/>
     </row>
     <row r="95" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="53"/>
-      <c r="B95" s="54"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="54"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="55"/>
+      <c r="A95" s="78"/>
+      <c r="B95" s="79"/>
+      <c r="C95" s="79"/>
+      <c r="D95" s="79"/>
+      <c r="E95" s="79"/>
+      <c r="F95" s="79"/>
+      <c r="G95" s="79"/>
+      <c r="H95" s="79"/>
+      <c r="I95" s="79"/>
+      <c r="J95" s="79"/>
+      <c r="K95" s="79"/>
+      <c r="L95" s="80"/>
     </row>
     <row r="96" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="160"/>
-      <c r="B96" s="161"/>
-      <c r="C96" s="161"/>
-      <c r="D96" s="161"/>
-      <c r="E96" s="161"/>
-      <c r="F96" s="161"/>
-      <c r="G96" s="161"/>
-      <c r="H96" s="161"/>
-      <c r="I96" s="161"/>
-      <c r="J96" s="161"/>
-      <c r="K96" s="161"/>
-      <c r="L96" s="162"/>
+      <c r="A96" s="81"/>
+      <c r="B96" s="82"/>
+      <c r="C96" s="82"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="82"/>
+      <c r="H96" s="82"/>
+      <c r="I96" s="82"/>
+      <c r="J96" s="82"/>
+      <c r="K96" s="82"/>
+      <c r="L96" s="83"/>
     </row>
     <row r="97" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="98" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="150" t="s">
+      <c r="A98" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="B98" s="151"/>
-      <c r="C98" s="152"/>
-      <c r="D98" s="152"/>
-      <c r="E98" s="152"/>
-      <c r="F98" s="152"/>
-      <c r="G98" s="152"/>
-      <c r="H98" s="152"/>
-      <c r="I98" s="152"/>
-      <c r="J98" s="152"/>
-      <c r="K98" s="152"/>
-      <c r="L98" s="153"/>
+      <c r="B98" s="100"/>
+      <c r="C98" s="101"/>
+      <c r="D98" s="101"/>
+      <c r="E98" s="101"/>
+      <c r="F98" s="101"/>
+      <c r="G98" s="101"/>
+      <c r="H98" s="101"/>
+      <c r="I98" s="101"/>
+      <c r="J98" s="101"/>
+      <c r="K98" s="101"/>
+      <c r="L98" s="102"/>
     </row>
     <row r="99" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="165"/>
-      <c r="B99" s="166"/>
-      <c r="C99" s="166"/>
-      <c r="D99" s="166"/>
-      <c r="E99" s="166"/>
-      <c r="F99" s="166"/>
-      <c r="G99" s="166"/>
-      <c r="H99" s="166"/>
-      <c r="I99" s="166"/>
-      <c r="J99" s="166"/>
-      <c r="K99" s="166"/>
-      <c r="L99" s="167"/>
+      <c r="A99" s="106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="107"/>
+      <c r="C99" s="107"/>
+      <c r="D99" s="107"/>
+      <c r="E99" s="107"/>
+      <c r="F99" s="107"/>
+      <c r="G99" s="107"/>
+      <c r="H99" s="107"/>
+      <c r="I99" s="107"/>
+      <c r="J99" s="107"/>
+      <c r="K99" s="107"/>
+      <c r="L99" s="108"/>
     </row>
     <row r="100" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="42"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="43"/>
-      <c r="I100" s="43"/>
-      <c r="J100" s="43"/>
-      <c r="K100" s="43"/>
-      <c r="L100" s="44"/>
+      <c r="A100" s="163"/>
+      <c r="B100" s="164"/>
+      <c r="C100" s="164"/>
+      <c r="D100" s="164"/>
+      <c r="E100" s="164"/>
+      <c r="F100" s="164"/>
+      <c r="G100" s="164"/>
+      <c r="H100" s="164"/>
+      <c r="I100" s="164"/>
+      <c r="J100" s="164"/>
+      <c r="K100" s="164"/>
+      <c r="L100" s="165"/>
     </row>
     <row r="101" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="42"/>
-      <c r="B101" s="43"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="43"/>
-      <c r="F101" s="43"/>
-      <c r="G101" s="43"/>
-      <c r="H101" s="43"/>
-      <c r="I101" s="43"/>
-      <c r="J101" s="43"/>
-      <c r="K101" s="43"/>
-      <c r="L101" s="44"/>
+      <c r="A101" s="163"/>
+      <c r="B101" s="164"/>
+      <c r="C101" s="164"/>
+      <c r="D101" s="164"/>
+      <c r="E101" s="164"/>
+      <c r="F101" s="164"/>
+      <c r="G101" s="164"/>
+      <c r="H101" s="164"/>
+      <c r="I101" s="164"/>
+      <c r="J101" s="164"/>
+      <c r="K101" s="164"/>
+      <c r="L101" s="165"/>
     </row>
     <row r="102" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="42"/>
-      <c r="B102" s="43"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="43"/>
-      <c r="F102" s="43"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="43"/>
-      <c r="I102" s="43"/>
-      <c r="J102" s="43"/>
-      <c r="K102" s="43"/>
-      <c r="L102" s="44"/>
+      <c r="A102" s="163"/>
+      <c r="B102" s="164"/>
+      <c r="C102" s="164"/>
+      <c r="D102" s="164"/>
+      <c r="E102" s="164"/>
+      <c r="F102" s="164"/>
+      <c r="G102" s="164"/>
+      <c r="H102" s="164"/>
+      <c r="I102" s="164"/>
+      <c r="J102" s="164"/>
+      <c r="K102" s="164"/>
+      <c r="L102" s="165"/>
     </row>
     <row r="103" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="42"/>
-      <c r="B103" s="43"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="43"/>
-      <c r="H103" s="43"/>
-      <c r="I103" s="43"/>
-      <c r="J103" s="43"/>
-      <c r="K103" s="43"/>
-      <c r="L103" s="44"/>
+      <c r="A103" s="163"/>
+      <c r="B103" s="164"/>
+      <c r="C103" s="164"/>
+      <c r="D103" s="164"/>
+      <c r="E103" s="164"/>
+      <c r="F103" s="164"/>
+      <c r="G103" s="164"/>
+      <c r="H103" s="164"/>
+      <c r="I103" s="164"/>
+      <c r="J103" s="164"/>
+      <c r="K103" s="164"/>
+      <c r="L103" s="165"/>
     </row>
     <row r="104" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="42"/>
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="43"/>
-      <c r="I104" s="43"/>
-      <c r="J104" s="43"/>
-      <c r="K104" s="43"/>
-      <c r="L104" s="44"/>
+      <c r="A104" s="163"/>
+      <c r="B104" s="164"/>
+      <c r="C104" s="164"/>
+      <c r="D104" s="164"/>
+      <c r="E104" s="164"/>
+      <c r="F104" s="164"/>
+      <c r="G104" s="164"/>
+      <c r="H104" s="164"/>
+      <c r="I104" s="164"/>
+      <c r="J104" s="164"/>
+      <c r="K104" s="164"/>
+      <c r="L104" s="165"/>
     </row>
     <row r="105" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="42"/>
-      <c r="B105" s="43"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="43"/>
-      <c r="G105" s="43"/>
-      <c r="H105" s="43"/>
-      <c r="I105" s="43"/>
-      <c r="J105" s="43"/>
-      <c r="K105" s="43"/>
-      <c r="L105" s="44"/>
+      <c r="A105" s="163"/>
+      <c r="B105" s="164"/>
+      <c r="C105" s="164"/>
+      <c r="D105" s="164"/>
+      <c r="E105" s="164"/>
+      <c r="F105" s="164"/>
+      <c r="G105" s="164"/>
+      <c r="H105" s="164"/>
+      <c r="I105" s="164"/>
+      <c r="J105" s="164"/>
+      <c r="K105" s="164"/>
+      <c r="L105" s="165"/>
     </row>
     <row r="106" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="42"/>
-      <c r="B106" s="43"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="43"/>
-      <c r="G106" s="43"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="43"/>
-      <c r="K106" s="43"/>
-      <c r="L106" s="44"/>
+      <c r="A106" s="163"/>
+      <c r="B106" s="164"/>
+      <c r="C106" s="164"/>
+      <c r="D106" s="164"/>
+      <c r="E106" s="164"/>
+      <c r="F106" s="164"/>
+      <c r="G106" s="164"/>
+      <c r="H106" s="164"/>
+      <c r="I106" s="164"/>
+      <c r="J106" s="164"/>
+      <c r="K106" s="164"/>
+      <c r="L106" s="165"/>
     </row>
     <row r="107" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="42"/>
-      <c r="B107" s="43"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="43"/>
-      <c r="K107" s="43"/>
-      <c r="L107" s="44"/>
+      <c r="A107" s="163"/>
+      <c r="B107" s="164"/>
+      <c r="C107" s="164"/>
+      <c r="D107" s="164"/>
+      <c r="E107" s="164"/>
+      <c r="F107" s="164"/>
+      <c r="G107" s="164"/>
+      <c r="H107" s="164"/>
+      <c r="I107" s="164"/>
+      <c r="J107" s="164"/>
+      <c r="K107" s="164"/>
+      <c r="L107" s="165"/>
     </row>
     <row r="108" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="42"/>
-      <c r="B108" s="43"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="43"/>
-      <c r="G108" s="43"/>
-      <c r="H108" s="43"/>
-      <c r="I108" s="43"/>
-      <c r="J108" s="43"/>
-      <c r="K108" s="43"/>
-      <c r="L108" s="44"/>
+      <c r="A108" s="163"/>
+      <c r="B108" s="164"/>
+      <c r="C108" s="164"/>
+      <c r="D108" s="164"/>
+      <c r="E108" s="164"/>
+      <c r="F108" s="164"/>
+      <c r="G108" s="164"/>
+      <c r="H108" s="164"/>
+      <c r="I108" s="164"/>
+      <c r="J108" s="164"/>
+      <c r="K108" s="164"/>
+      <c r="L108" s="165"/>
     </row>
     <row r="109" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="42"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="43"/>
-      <c r="F109" s="43"/>
-      <c r="G109" s="43"/>
-      <c r="H109" s="43"/>
-      <c r="I109" s="43"/>
-      <c r="J109" s="43"/>
-      <c r="K109" s="43"/>
-      <c r="L109" s="44"/>
+      <c r="A109" s="163"/>
+      <c r="B109" s="164"/>
+      <c r="C109" s="164"/>
+      <c r="D109" s="164"/>
+      <c r="E109" s="164"/>
+      <c r="F109" s="164"/>
+      <c r="G109" s="164"/>
+      <c r="H109" s="164"/>
+      <c r="I109" s="164"/>
+      <c r="J109" s="164"/>
+      <c r="K109" s="164"/>
+      <c r="L109" s="165"/>
     </row>
     <row r="110" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="42"/>
-      <c r="B110" s="43"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="43"/>
-      <c r="F110" s="43"/>
-      <c r="G110" s="43"/>
-      <c r="H110" s="43"/>
-      <c r="I110" s="43"/>
-      <c r="J110" s="43"/>
-      <c r="K110" s="43"/>
-      <c r="L110" s="44"/>
+      <c r="A110" s="163"/>
+      <c r="B110" s="164"/>
+      <c r="C110" s="164"/>
+      <c r="D110" s="164"/>
+      <c r="E110" s="164"/>
+      <c r="F110" s="164"/>
+      <c r="G110" s="164"/>
+      <c r="H110" s="164"/>
+      <c r="I110" s="164"/>
+      <c r="J110" s="164"/>
+      <c r="K110" s="164"/>
+      <c r="L110" s="165"/>
     </row>
     <row r="111" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="42"/>
-      <c r="B111" s="43"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="43"/>
-      <c r="E111" s="43"/>
-      <c r="F111" s="43"/>
-      <c r="G111" s="43"/>
-      <c r="H111" s="43"/>
-      <c r="I111" s="43"/>
-      <c r="J111" s="43"/>
-      <c r="K111" s="43"/>
-      <c r="L111" s="44"/>
+      <c r="A111" s="163"/>
+      <c r="B111" s="164"/>
+      <c r="C111" s="164"/>
+      <c r="D111" s="164"/>
+      <c r="E111" s="164"/>
+      <c r="F111" s="164"/>
+      <c r="G111" s="164"/>
+      <c r="H111" s="164"/>
+      <c r="I111" s="164"/>
+      <c r="J111" s="164"/>
+      <c r="K111" s="164"/>
+      <c r="L111" s="165"/>
     </row>
     <row r="112" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="42"/>
-      <c r="B112" s="43"/>
-      <c r="C112" s="43"/>
-      <c r="D112" s="43"/>
-      <c r="E112" s="43"/>
-      <c r="F112" s="43"/>
-      <c r="G112" s="43"/>
-      <c r="H112" s="43"/>
-      <c r="I112" s="43"/>
-      <c r="J112" s="43"/>
-      <c r="K112" s="43"/>
-      <c r="L112" s="44"/>
+      <c r="A112" s="163"/>
+      <c r="B112" s="164"/>
+      <c r="C112" s="164"/>
+      <c r="D112" s="164"/>
+      <c r="E112" s="164"/>
+      <c r="F112" s="164"/>
+      <c r="G112" s="164"/>
+      <c r="H112" s="164"/>
+      <c r="I112" s="164"/>
+      <c r="J112" s="164"/>
+      <c r="K112" s="164"/>
+      <c r="L112" s="165"/>
     </row>
     <row r="113" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="42"/>
-      <c r="B113" s="43"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="43"/>
-      <c r="E113" s="43"/>
-      <c r="F113" s="43"/>
-      <c r="G113" s="43"/>
-      <c r="H113" s="43"/>
-      <c r="I113" s="43"/>
-      <c r="J113" s="43"/>
-      <c r="K113" s="43"/>
-      <c r="L113" s="44"/>
+      <c r="A113" s="163"/>
+      <c r="B113" s="164"/>
+      <c r="C113" s="164"/>
+      <c r="D113" s="164"/>
+      <c r="E113" s="164"/>
+      <c r="F113" s="164"/>
+      <c r="G113" s="164"/>
+      <c r="H113" s="164"/>
+      <c r="I113" s="164"/>
+      <c r="J113" s="164"/>
+      <c r="K113" s="164"/>
+      <c r="L113" s="165"/>
     </row>
     <row r="114" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="42"/>
-      <c r="B114" s="43"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="43"/>
-      <c r="F114" s="43"/>
-      <c r="G114" s="43"/>
-      <c r="H114" s="43"/>
-      <c r="I114" s="43"/>
-      <c r="J114" s="43"/>
-      <c r="K114" s="43"/>
-      <c r="L114" s="44"/>
+      <c r="A114" s="163"/>
+      <c r="B114" s="164"/>
+      <c r="C114" s="164"/>
+      <c r="D114" s="164"/>
+      <c r="E114" s="164"/>
+      <c r="F114" s="164"/>
+      <c r="G114" s="164"/>
+      <c r="H114" s="164"/>
+      <c r="I114" s="164"/>
+      <c r="J114" s="164"/>
+      <c r="K114" s="164"/>
+      <c r="L114" s="165"/>
     </row>
     <row r="115" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="42"/>
-      <c r="B115" s="43"/>
-      <c r="C115" s="43"/>
-      <c r="D115" s="43"/>
-      <c r="E115" s="43"/>
-      <c r="F115" s="43"/>
-      <c r="G115" s="43"/>
-      <c r="H115" s="43"/>
-      <c r="I115" s="43"/>
-      <c r="J115" s="43"/>
-      <c r="K115" s="43"/>
-      <c r="L115" s="44"/>
+      <c r="A115" s="163"/>
+      <c r="B115" s="164"/>
+      <c r="C115" s="164"/>
+      <c r="D115" s="164"/>
+      <c r="E115" s="164"/>
+      <c r="F115" s="164"/>
+      <c r="G115" s="164"/>
+      <c r="H115" s="164"/>
+      <c r="I115" s="164"/>
+      <c r="J115" s="164"/>
+      <c r="K115" s="164"/>
+      <c r="L115" s="165"/>
     </row>
     <row r="116" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="42"/>
-      <c r="B116" s="43"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="43"/>
-      <c r="E116" s="43"/>
-      <c r="F116" s="43"/>
-      <c r="G116" s="43"/>
-      <c r="H116" s="43"/>
-      <c r="I116" s="43"/>
-      <c r="J116" s="43"/>
-      <c r="K116" s="43"/>
-      <c r="L116" s="44"/>
+      <c r="A116" s="163"/>
+      <c r="B116" s="164"/>
+      <c r="C116" s="164"/>
+      <c r="D116" s="164"/>
+      <c r="E116" s="164"/>
+      <c r="F116" s="164"/>
+      <c r="G116" s="164"/>
+      <c r="H116" s="164"/>
+      <c r="I116" s="164"/>
+      <c r="J116" s="164"/>
+      <c r="K116" s="164"/>
+      <c r="L116" s="165"/>
     </row>
     <row r="117" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="42"/>
-      <c r="B117" s="43"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="43"/>
-      <c r="E117" s="43"/>
-      <c r="F117" s="43"/>
-      <c r="G117" s="43"/>
-      <c r="H117" s="43"/>
-      <c r="I117" s="43"/>
-      <c r="J117" s="43"/>
-      <c r="K117" s="43"/>
-      <c r="L117" s="44"/>
+      <c r="A117" s="163"/>
+      <c r="B117" s="164"/>
+      <c r="C117" s="164"/>
+      <c r="D117" s="164"/>
+      <c r="E117" s="164"/>
+      <c r="F117" s="164"/>
+      <c r="G117" s="164"/>
+      <c r="H117" s="164"/>
+      <c r="I117" s="164"/>
+      <c r="J117" s="164"/>
+      <c r="K117" s="164"/>
+      <c r="L117" s="165"/>
     </row>
     <row r="118" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="42"/>
-      <c r="B118" s="43"/>
-      <c r="C118" s="43"/>
-      <c r="D118" s="43"/>
-      <c r="E118" s="43"/>
-      <c r="F118" s="43"/>
-      <c r="G118" s="43"/>
-      <c r="H118" s="43"/>
-      <c r="I118" s="43"/>
-      <c r="J118" s="43"/>
-      <c r="K118" s="43"/>
-      <c r="L118" s="44"/>
+      <c r="A118" s="163"/>
+      <c r="B118" s="164"/>
+      <c r="C118" s="164"/>
+      <c r="D118" s="164"/>
+      <c r="E118" s="164"/>
+      <c r="F118" s="164"/>
+      <c r="G118" s="164"/>
+      <c r="H118" s="164"/>
+      <c r="I118" s="164"/>
+      <c r="J118" s="164"/>
+      <c r="K118" s="164"/>
+      <c r="L118" s="165"/>
     </row>
     <row r="119" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="42"/>
-      <c r="B119" s="43"/>
-      <c r="C119" s="43"/>
-      <c r="D119" s="43"/>
-      <c r="E119" s="43"/>
-      <c r="F119" s="43"/>
-      <c r="G119" s="43"/>
-      <c r="H119" s="43"/>
-      <c r="I119" s="43"/>
-      <c r="J119" s="43"/>
-      <c r="K119" s="43"/>
-      <c r="L119" s="44"/>
+      <c r="A119" s="163"/>
+      <c r="B119" s="164"/>
+      <c r="C119" s="164"/>
+      <c r="D119" s="164"/>
+      <c r="E119" s="164"/>
+      <c r="F119" s="164"/>
+      <c r="G119" s="164"/>
+      <c r="H119" s="164"/>
+      <c r="I119" s="164"/>
+      <c r="J119" s="164"/>
+      <c r="K119" s="164"/>
+      <c r="L119" s="165"/>
     </row>
     <row r="120" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="42"/>
-      <c r="B120" s="43"/>
-      <c r="C120" s="43"/>
-      <c r="D120" s="43"/>
-      <c r="E120" s="43"/>
-      <c r="F120" s="43"/>
-      <c r="G120" s="43"/>
-      <c r="H120" s="43"/>
-      <c r="I120" s="43"/>
-      <c r="J120" s="43"/>
-      <c r="K120" s="43"/>
-      <c r="L120" s="44"/>
+      <c r="A120" s="163"/>
+      <c r="B120" s="164"/>
+      <c r="C120" s="164"/>
+      <c r="D120" s="164"/>
+      <c r="E120" s="164"/>
+      <c r="F120" s="164"/>
+      <c r="G120" s="164"/>
+      <c r="H120" s="164"/>
+      <c r="I120" s="164"/>
+      <c r="J120" s="164"/>
+      <c r="K120" s="164"/>
+      <c r="L120" s="165"/>
     </row>
     <row r="121" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="42"/>
-      <c r="B121" s="43"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="43"/>
-      <c r="E121" s="43"/>
-      <c r="F121" s="43"/>
-      <c r="G121" s="43"/>
-      <c r="H121" s="43"/>
-      <c r="I121" s="43"/>
-      <c r="J121" s="43"/>
-      <c r="K121" s="43"/>
-      <c r="L121" s="44"/>
+      <c r="A121" s="163"/>
+      <c r="B121" s="164"/>
+      <c r="C121" s="164"/>
+      <c r="D121" s="164"/>
+      <c r="E121" s="164"/>
+      <c r="F121" s="164"/>
+      <c r="G121" s="164"/>
+      <c r="H121" s="164"/>
+      <c r="I121" s="164"/>
+      <c r="J121" s="164"/>
+      <c r="K121" s="164"/>
+      <c r="L121" s="165"/>
     </row>
     <row r="122" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="42"/>
-      <c r="B122" s="43"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="43"/>
-      <c r="E122" s="43"/>
-      <c r="F122" s="43"/>
-      <c r="G122" s="43"/>
-      <c r="H122" s="43"/>
-      <c r="I122" s="43"/>
-      <c r="J122" s="43"/>
-      <c r="K122" s="43"/>
-      <c r="L122" s="44"/>
+      <c r="A122" s="163"/>
+      <c r="B122" s="164"/>
+      <c r="C122" s="164"/>
+      <c r="D122" s="164"/>
+      <c r="E122" s="164"/>
+      <c r="F122" s="164"/>
+      <c r="G122" s="164"/>
+      <c r="H122" s="164"/>
+      <c r="I122" s="164"/>
+      <c r="J122" s="164"/>
+      <c r="K122" s="164"/>
+      <c r="L122" s="165"/>
     </row>
     <row r="123" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="42"/>
-      <c r="B123" s="43"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="43"/>
-      <c r="E123" s="43"/>
-      <c r="F123" s="43"/>
-      <c r="G123" s="43"/>
-      <c r="H123" s="43"/>
-      <c r="I123" s="43"/>
-      <c r="J123" s="43"/>
-      <c r="K123" s="43"/>
-      <c r="L123" s="44"/>
+      <c r="A123" s="163"/>
+      <c r="B123" s="164"/>
+      <c r="C123" s="164"/>
+      <c r="D123" s="164"/>
+      <c r="E123" s="164"/>
+      <c r="F123" s="164"/>
+      <c r="G123" s="164"/>
+      <c r="H123" s="164"/>
+      <c r="I123" s="164"/>
+      <c r="J123" s="164"/>
+      <c r="K123" s="164"/>
+      <c r="L123" s="165"/>
     </row>
     <row r="124" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="42"/>
-      <c r="B124" s="43"/>
-      <c r="C124" s="43"/>
-      <c r="D124" s="43"/>
-      <c r="E124" s="43"/>
-      <c r="F124" s="43"/>
-      <c r="G124" s="43"/>
-      <c r="H124" s="43"/>
-      <c r="I124" s="43"/>
-      <c r="J124" s="43"/>
-      <c r="K124" s="43"/>
-      <c r="L124" s="44"/>
+      <c r="A124" s="163"/>
+      <c r="B124" s="164"/>
+      <c r="C124" s="164"/>
+      <c r="D124" s="164"/>
+      <c r="E124" s="164"/>
+      <c r="F124" s="164"/>
+      <c r="G124" s="164"/>
+      <c r="H124" s="164"/>
+      <c r="I124" s="164"/>
+      <c r="J124" s="164"/>
+      <c r="K124" s="164"/>
+      <c r="L124" s="165"/>
     </row>
     <row r="125" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="42"/>
-      <c r="B125" s="43"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="43"/>
-      <c r="E125" s="43"/>
-      <c r="F125" s="43"/>
-      <c r="G125" s="43"/>
-      <c r="H125" s="43"/>
-      <c r="I125" s="43"/>
-      <c r="J125" s="43"/>
-      <c r="K125" s="43"/>
-      <c r="L125" s="44"/>
+      <c r="A125" s="163"/>
+      <c r="B125" s="164"/>
+      <c r="C125" s="164"/>
+      <c r="D125" s="164"/>
+      <c r="E125" s="164"/>
+      <c r="F125" s="164"/>
+      <c r="G125" s="164"/>
+      <c r="H125" s="164"/>
+      <c r="I125" s="164"/>
+      <c r="J125" s="164"/>
+      <c r="K125" s="164"/>
+      <c r="L125" s="165"/>
     </row>
     <row r="126" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="42"/>
-      <c r="B126" s="43"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="43"/>
-      <c r="E126" s="43"/>
-      <c r="F126" s="43"/>
-      <c r="G126" s="43"/>
-      <c r="H126" s="43"/>
-      <c r="I126" s="43"/>
-      <c r="J126" s="43"/>
-      <c r="K126" s="43"/>
-      <c r="L126" s="44"/>
+      <c r="A126" s="163"/>
+      <c r="B126" s="164"/>
+      <c r="C126" s="164"/>
+      <c r="D126" s="164"/>
+      <c r="E126" s="164"/>
+      <c r="F126" s="164"/>
+      <c r="G126" s="164"/>
+      <c r="H126" s="164"/>
+      <c r="I126" s="164"/>
+      <c r="J126" s="164"/>
+      <c r="K126" s="164"/>
+      <c r="L126" s="165"/>
     </row>
     <row r="127" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="72"/>
-      <c r="B127" s="73"/>
-      <c r="C127" s="73"/>
-      <c r="D127" s="73"/>
-      <c r="E127" s="73"/>
-      <c r="F127" s="73"/>
-      <c r="G127" s="73"/>
-      <c r="H127" s="73"/>
-      <c r="I127" s="73"/>
-      <c r="J127" s="73"/>
-      <c r="K127" s="73"/>
-      <c r="L127" s="74"/>
+      <c r="A127" s="166"/>
+      <c r="B127" s="167"/>
+      <c r="C127" s="167"/>
+      <c r="D127" s="167"/>
+      <c r="E127" s="167"/>
+      <c r="F127" s="167"/>
+      <c r="G127" s="167"/>
+      <c r="H127" s="167"/>
+      <c r="I127" s="167"/>
+      <c r="J127" s="167"/>
+      <c r="K127" s="167"/>
+      <c r="L127" s="168"/>
     </row>
     <row r="128" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="145" t="s">
+      <c r="A128" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B128" s="145"/>
-      <c r="C128" s="145"/>
-      <c r="D128" s="145"/>
-      <c r="E128" s="145"/>
-      <c r="F128" s="145"/>
-      <c r="G128" s="145"/>
-      <c r="H128" s="145"/>
-      <c r="I128" s="145"/>
-      <c r="J128" s="145"/>
-      <c r="K128" s="145"/>
-      <c r="L128" s="145"/>
+      <c r="B128" s="94"/>
+      <c r="C128" s="94"/>
+      <c r="D128" s="94"/>
+      <c r="E128" s="94"/>
+      <c r="F128" s="94"/>
+      <c r="G128" s="94"/>
+      <c r="H128" s="94"/>
+      <c r="I128" s="94"/>
+      <c r="J128" s="94"/>
+      <c r="K128" s="94"/>
+      <c r="L128" s="94"/>
     </row>
     <row r="129" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="130" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6798,22 +6807,182 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZKdfm4doESJNUo9o1cHIQ/pC5D/Q+dk/vqSiAR2+YvGK59R8UAnOEWc4by5CSzZwlYZc8oZgDpjT4TJFM0a7dg==" saltValue="HrT7aPnIr/FQ2XsDNl9tXw==" spinCount="100000" sheet="1" scenarios="1" insertHyperlinks="0"/>
   <mergeCells count="216">
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="J79:L79"/>
-    <mergeCell ref="J80:L80"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="J70:L70"/>
-    <mergeCell ref="J71:L71"/>
-    <mergeCell ref="J72:L72"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="A108:L108"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:L30"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A90:L90"/>
+    <mergeCell ref="A103:L103"/>
+    <mergeCell ref="A104:L104"/>
+    <mergeCell ref="A105:L105"/>
+    <mergeCell ref="A89:L89"/>
+    <mergeCell ref="A101:L101"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="J64:L64"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="A109:L109"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="E53:L53"/>
+    <mergeCell ref="A120:L120"/>
+    <mergeCell ref="A121:L121"/>
+    <mergeCell ref="A122:L122"/>
+    <mergeCell ref="A123:L123"/>
+    <mergeCell ref="A124:L124"/>
+    <mergeCell ref="A125:L125"/>
+    <mergeCell ref="A110:L110"/>
+    <mergeCell ref="A111:L111"/>
+    <mergeCell ref="A112:L112"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A126:L126"/>
+    <mergeCell ref="A127:L127"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="A113:L113"/>
+    <mergeCell ref="A114:L114"/>
+    <mergeCell ref="A115:L115"/>
+    <mergeCell ref="A116:L116"/>
+    <mergeCell ref="A117:L117"/>
+    <mergeCell ref="A118:L118"/>
+    <mergeCell ref="A119:L119"/>
+    <mergeCell ref="A100:L100"/>
+    <mergeCell ref="A102:L102"/>
+    <mergeCell ref="A106:L106"/>
+    <mergeCell ref="A107:L107"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D34:L34"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="A128:L128"/>
+    <mergeCell ref="A85:L85"/>
+    <mergeCell ref="A98:L98"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="A86:L86"/>
+    <mergeCell ref="A87:L87"/>
+    <mergeCell ref="A88:L88"/>
+    <mergeCell ref="A91:L91"/>
+    <mergeCell ref="A92:L92"/>
+    <mergeCell ref="A93:L93"/>
+    <mergeCell ref="A94:L94"/>
+    <mergeCell ref="A95:L95"/>
+    <mergeCell ref="A96:L96"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A59:L59"/>
+    <mergeCell ref="A60:L60"/>
+    <mergeCell ref="A99:L99"/>
+    <mergeCell ref="H82:L82"/>
+    <mergeCell ref="G83:L83"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="D79:F79"/>
     <mergeCell ref="D80:F80"/>
     <mergeCell ref="A78:C78"/>
@@ -6838,182 +7007,22 @@
     <mergeCell ref="D66:F66"/>
     <mergeCell ref="D67:F67"/>
     <mergeCell ref="D74:F74"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="D32:L32"/>
-    <mergeCell ref="A47:L47"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="D26:L26"/>
-    <mergeCell ref="D27:L27"/>
-    <mergeCell ref="D28:L28"/>
-    <mergeCell ref="D29:L29"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A128:L128"/>
-    <mergeCell ref="A85:L85"/>
-    <mergeCell ref="A98:L98"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="A62:L62"/>
-    <mergeCell ref="A86:L86"/>
-    <mergeCell ref="A87:L87"/>
-    <mergeCell ref="A88:L88"/>
-    <mergeCell ref="A91:L91"/>
-    <mergeCell ref="A92:L92"/>
-    <mergeCell ref="A93:L93"/>
-    <mergeCell ref="A94:L94"/>
-    <mergeCell ref="A95:L95"/>
-    <mergeCell ref="A96:L96"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A59:L59"/>
-    <mergeCell ref="A60:L60"/>
-    <mergeCell ref="A99:L99"/>
-    <mergeCell ref="H82:L82"/>
-    <mergeCell ref="G83:L83"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D34:L34"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A126:L126"/>
-    <mergeCell ref="A127:L127"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="A113:L113"/>
-    <mergeCell ref="A114:L114"/>
-    <mergeCell ref="A115:L115"/>
-    <mergeCell ref="A116:L116"/>
-    <mergeCell ref="A117:L117"/>
-    <mergeCell ref="A118:L118"/>
-    <mergeCell ref="A119:L119"/>
-    <mergeCell ref="A100:L100"/>
-    <mergeCell ref="A102:L102"/>
-    <mergeCell ref="A106:L106"/>
-    <mergeCell ref="A107:L107"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A109:L109"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="E53:L53"/>
-    <mergeCell ref="A120:L120"/>
-    <mergeCell ref="A121:L121"/>
-    <mergeCell ref="A122:L122"/>
-    <mergeCell ref="A123:L123"/>
-    <mergeCell ref="A124:L124"/>
-    <mergeCell ref="A125:L125"/>
-    <mergeCell ref="A110:L110"/>
-    <mergeCell ref="A111:L111"/>
-    <mergeCell ref="A112:L112"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A108:L108"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:L30"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A90:L90"/>
-    <mergeCell ref="A103:L103"/>
-    <mergeCell ref="A104:L104"/>
-    <mergeCell ref="A105:L105"/>
-    <mergeCell ref="A89:L89"/>
-    <mergeCell ref="A101:L101"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="J64:L64"/>
-    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="J70:L70"/>
+    <mergeCell ref="J71:L71"/>
+    <mergeCell ref="J72:L72"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="J77:L77"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
